--- a/resources/Scenario File - 2020-06-18_07-15-28.xlsx
+++ b/resources/Scenario File - 2020-06-18_07-15-28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cases\ODM\BasicSample\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A72510-30EB-4D50-9A71-B2DA96A171A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C18630C-ABFB-4A93-A097-CFA62FF0C4D7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29295" yWindow="5745" windowWidth="23610" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-53235" yWindow="5025" windowWidth="23610" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="64">
   <si>
     <t/>
   </si>
@@ -284,6 +284,30 @@
   </si>
   <si>
     <t>Re-evaluated</t>
+  </si>
+  <si>
+    <t>Scenario 8</t>
+  </si>
+  <si>
+    <t>Scenario 9</t>
+  </si>
+  <si>
+    <t>Scenario 10</t>
+  </si>
+  <si>
+    <t>Scenario 11</t>
+  </si>
+  <si>
+    <t>Scenario 12</t>
+  </si>
+  <si>
+    <t>Scenario 13</t>
+  </si>
+  <si>
+    <t>Scenario 14</t>
+  </si>
+  <si>
+    <t>Scenario 15</t>
   </si>
 </sst>
 </file>
@@ -444,7 +468,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -582,11 +606,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -641,10 +680,12 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1096,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F15"/>
+  <dimension ref="B2:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1129,13 +1170,13 @@
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="38" t="s">
+      <c r="E5" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="39" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1306,6 +1347,142 @@
         <v>13</v>
       </c>
       <c r="F15" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="40">
+        <v>200</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="40">
+        <v>200</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="40">
+        <v>200</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="40">
+        <v>200</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="40">
+        <v>170</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="40">
+        <v>23</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="40">
+        <v>210</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="40">
+        <v>60</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1314,9 +1491,12 @@
     <mergeCell ref="D5:F5"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E15 E24:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>domainA</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16:E23" xr:uid="{02988567-2340-435C-884F-3E9CA8AF0998}">
+      <formula1>"Gold,Silver,Bronze,None"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -1362,10 +1542,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:C15"/>
+  <dimension ref="B2:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1421,7 +1601,7 @@
       <c r="B9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="38" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1429,7 +1609,7 @@
       <c r="B10" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="38" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1437,7 +1617,7 @@
       <c r="B11" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="38" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1445,7 +1625,7 @@
       <c r="B12" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="38" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1453,7 +1633,7 @@
       <c r="B13" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="38" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1461,7 +1641,7 @@
       <c r="B14" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="38" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1469,8 +1649,72 @@
       <c r="B15" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="38" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
